--- a/STRUKTUR ORGANISASI.xlsx
+++ b/STRUKTUR ORGANISASI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADVAN\Documents\AZHURA PERTIWI\STT\KP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E7E19BF-ADA8-4236-832B-6AF33E7ECA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F9EAD-A279-4082-808D-1D76B86109A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E3F63C66-13A9-4BAE-8B27-EAE27303C2DB}"/>
   </bookViews>
@@ -500,19 +500,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,104 +542,104 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F283E29E-9A6F-41DB-ACAC-60F17090332F}">
   <dimension ref="B2:S34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,26 +980,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="28.5" x14ac:dyDescent="0.65">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
@@ -1046,35 +1042,35 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="38"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="47"/>
+      <c r="P5" s="25"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="S5" s="43"/>
+      <c r="S5" s="17"/>
     </row>
     <row r="6" spans="2:19" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="26"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1089,11 +1085,11 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="49"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="45"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B7" s="1"/>
@@ -1129,63 +1125,63 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="P8" s="30"/>
+      <c r="P8" s="21"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="16" t="s">
+      <c r="R8" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="S8" s="41"/>
+      <c r="S8" s="15"/>
     </row>
     <row r="9" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="3"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="37" t="s">
+      <c r="L9" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="M9" s="38"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="P9" s="30"/>
+      <c r="P9" s="21"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="16" t="s">
+      <c r="R9" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="S9" s="41"/>
+      <c r="S9" s="15"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="J10" s="1"/>
@@ -1195,22 +1191,22 @@
       </c>
       <c r="M10" s="34"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="31" t="s">
+      <c r="O10" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="32"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="16" t="s">
+      <c r="R10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="S10" s="41"/>
+      <c r="S10" s="15"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1221,59 +1217,59 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="29" t="s">
+      <c r="O11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="P11" s="30"/>
+      <c r="P11" s="21"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="3"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="2"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="13" t="s">
         <v>46</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
-      <c r="L12" s="37" t="s">
+      <c r="L12" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="M12" s="38"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="31" t="s">
+      <c r="O12" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="P12" s="32"/>
+      <c r="P12" s="23"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="2"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="5" t="s">
         <v>52</v>
       </c>
       <c r="J13" s="1"/>
@@ -1283,27 +1279,27 @@
       </c>
       <c r="M13" s="36"/>
       <c r="N13" s="1"/>
-      <c r="O13" s="29" t="s">
+      <c r="O13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="P13" s="30"/>
+      <c r="P13" s="21"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="J14" s="1"/>
@@ -1311,27 +1307,27 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
-      <c r="O14" s="29" t="s">
+      <c r="O14" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="30"/>
+      <c r="P14" s="21"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7" t="s">
+      <c r="I15" s="5" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="1"/>
@@ -1346,15 +1342,15 @@
       <c r="S15" s="1"/>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="6" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="1"/>
@@ -1372,11 +1368,11 @@
       <c r="S16" s="1"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="3"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1394,13 +1390,13 @@
       <c r="S17" s="1"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="2"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1418,13 +1414,13 @@
       <c r="S18" s="1"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1442,13 +1438,13 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="2"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1466,13 +1462,13 @@
       <c r="S20" s="1"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1495,20 +1491,20 @@
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="18" t="s">
+      <c r="G22" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="H22" s="19"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="40"/>
+      <c r="P22" s="30"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
@@ -1534,119 +1530,119 @@
       <c r="S23" s="1"/>
     </row>
     <row r="24" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="13" t="s">
+      <c r="I24" s="11" t="s">
         <v>39</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="27" t="s">
+      <c r="L24" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="28"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="27" t="s">
+      <c r="O24" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="P24" s="28"/>
+      <c r="P24" s="40"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="27" t="s">
+      <c r="R24" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="S24" s="28"/>
+      <c r="S24" s="40"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="6" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="6" t="s">
         <v>40</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="5" t="s">
         <v>54</v>
       </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="4" t="s">
+      <c r="O25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="P25" s="5" t="s">
         <v>60</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="4" t="s">
+      <c r="R25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="5" t="s">
         <v>12</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P26" s="8" t="s">
+      <c r="P26" s="6" t="s">
         <v>45</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S26" s="8" t="s">
+      <c r="S26" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="1"/>
@@ -1654,29 +1650,29 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M27" s="7" t="s">
+      <c r="M27" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="4" t="s">
+      <c r="O27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="P27" s="5" t="s">
         <v>61</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="4" t="s">
+      <c r="R27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="7" t="s">
+      <c r="S27" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="1"/>
@@ -1688,24 +1684,24 @@
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="5" t="s">
         <v>55</v>
       </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="P28" s="5" t="s">
         <v>6</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="4" t="s">
+      <c r="R28" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="S28" s="7" t="s">
+      <c r="S28" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1730,77 +1726,77 @@
       <c r="S29" s="1"/>
     </row>
     <row r="30" spans="2:19" ht="21" x14ac:dyDescent="0.5">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="12" t="s">
         <v>37</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="14" t="s">
+      <c r="I30" s="12" t="s">
         <v>42</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M30" s="28"/>
+      <c r="M30" s="40"/>
       <c r="N30" s="1"/>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="P30" s="28"/>
+      <c r="P30" s="40"/>
       <c r="Q30" s="1"/>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="28"/>
+      <c r="S30" s="40"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="6" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M31" s="7" t="s">
+      <c r="M31" s="5" t="s">
         <v>18</v>
       </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="5" t="s">
+      <c r="O31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P31" s="8" t="s">
+      <c r="P31" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="5" t="s">
+      <c r="R31" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="S31" s="8" t="s">
+      <c r="S31" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.35">
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="1"/>
@@ -1812,24 +1808,24 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="5" t="s">
+      <c r="L32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="M32" s="8" t="s">
+      <c r="M32" s="6" t="s">
         <v>5</v>
       </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="5" t="s">
+      <c r="O32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P32" s="8" t="s">
+      <c r="P32" s="6" t="s">
         <v>63</v>
       </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="5" t="s">
+      <c r="R32" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="S32" s="8" t="s">
+      <c r="S32" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1844,24 +1840,24 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="5" t="s">
+      <c r="L33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="8" t="s">
+      <c r="M33" s="6" t="s">
         <v>58</v>
       </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="5" t="s">
+      <c r="O33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="P33" s="8" t="s">
+      <c r="P33" s="6" t="s">
         <v>64</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="5" t="s">
+      <c r="R33" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S33" s="8" t="s">
+      <c r="S33" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1887,15 +1883,13 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R5:S6"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R30:S30"/>
     <mergeCell ref="B2:S2"/>
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="L9:M9"/>
@@ -1907,18 +1901,20 @@
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="R30:S30"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="C10:C12"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R5:S6"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O5:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
